--- a/biology/Médecine/Centre_Ratamo/Centre_Ratamo.xlsx
+++ b/biology/Médecine/Centre_Ratamo/Centre_Ratamo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre Ratamo (finnois : Ratamo-keskus) est un hôpital et un centre de santé du Kymsote situé à Kotiharju dans le quartier Kangas à Kouvola en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre Ratamo (finnois : Ratamo-keskus) est un hôpital et un centre de santé du Kymsote situé à Kotiharju dans le quartier Kangas à Kouvola en Finlande.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lujatalo Oy a commencé les travaux de construction du Ratamokeskus en 2018 et ils se sont achevés en 2022.
-Le centre est mis en service en mai 2022[2],[3],[4],[5],[6].
+Le centre est mis en service en mai 2022.
 Le centre de santé de Kouvola fonctionne au centre Ratamo depuis le lundi 9 mai 2022.
 Le centre compte, entre autres, une salle d'urgence et 115 lits, ainsi qu'un cabinet de dentiste.
 Le service des urgences est situé au rez-de-chaussée, tout comme les laboratoires et les services d'imagerie ainsi que la cuisine et la salle à manger.
@@ -551,9 +565,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les services du centre sont [1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les services du centre sont :
 Services de garde
 Services de centre de santé
 Services de santé bucco-dentaire et urgence dentaire du nord e la vallée de la Kymi
